--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jag1-Cd46.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jag1-Cd46.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.66920033333333</v>
+        <v>7.132470666666666</v>
       </c>
       <c r="H2">
-        <v>47.00760099999999</v>
+        <v>21.397412</v>
       </c>
       <c r="I2">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="J2">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.876357</v>
+        <v>4.47329</v>
       </c>
       <c r="N2">
-        <v>32.629071</v>
+        <v>13.41987</v>
       </c>
       <c r="O2">
-        <v>0.6153167079818749</v>
+        <v>0.3468876470949054</v>
       </c>
       <c r="P2">
-        <v>0.615316707981875</v>
+        <v>0.3468876470949054</v>
       </c>
       <c r="Q2">
-        <v>170.4238167298523</v>
+        <v>31.90560970849333</v>
       </c>
       <c r="R2">
-        <v>1533.814350568671</v>
+        <v>287.15048737644</v>
       </c>
       <c r="S2">
-        <v>0.1800378106750094</v>
+        <v>0.0373990066690033</v>
       </c>
       <c r="T2">
-        <v>0.1800378106750094</v>
+        <v>0.0373990066690033</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.66920033333333</v>
+        <v>7.132470666666666</v>
       </c>
       <c r="H3">
-        <v>47.00760099999999</v>
+        <v>21.397412</v>
       </c>
       <c r="I3">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="J3">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.048361</v>
       </c>
       <c r="O3">
-        <v>0.246065066795162</v>
+        <v>0.3372845821706862</v>
       </c>
       <c r="P3">
-        <v>0.2460650667951621</v>
+        <v>0.3372845821706862</v>
       </c>
       <c r="Q3">
-        <v>68.15246084355121</v>
+        <v>31.02235069352577</v>
       </c>
       <c r="R3">
-        <v>613.3721475919609</v>
+        <v>279.201156241732</v>
       </c>
       <c r="S3">
-        <v>0.07199709569840881</v>
+        <v>0.03636367118746774</v>
       </c>
       <c r="T3">
-        <v>0.07199709569840883</v>
+        <v>0.03636367118746774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.66920033333333</v>
+        <v>7.132470666666666</v>
       </c>
       <c r="H4">
-        <v>47.00760099999999</v>
+        <v>21.397412</v>
       </c>
       <c r="I4">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="J4">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.45022</v>
+        <v>4.072757333333333</v>
       </c>
       <c r="N4">
-        <v>7.35066</v>
+        <v>12.218272</v>
       </c>
       <c r="O4">
-        <v>0.1386182252229629</v>
+        <v>0.3158277707344083</v>
       </c>
       <c r="P4">
-        <v>0.1386182252229629</v>
+        <v>0.3158277707344083</v>
       </c>
       <c r="Q4">
-        <v>38.39298804073999</v>
+        <v>29.04882221245155</v>
       </c>
       <c r="R4">
-        <v>345.5368923666599</v>
+        <v>261.4393999120639</v>
       </c>
       <c r="S4">
-        <v>0.04055882355389046</v>
+        <v>0.03405034743344729</v>
       </c>
       <c r="T4">
-        <v>0.04055882355389047</v>
+        <v>0.03405034743344729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>49.43030900000001</v>
       </c>
       <c r="I5">
-        <v>0.3076736139282969</v>
+        <v>0.2490596131114117</v>
       </c>
       <c r="J5">
-        <v>0.3076736139282968</v>
+        <v>0.2490596131114118</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.876357</v>
+        <v>4.47329</v>
       </c>
       <c r="N5">
-        <v>32.629071</v>
+        <v>13.41987</v>
       </c>
       <c r="O5">
-        <v>0.6153167079818749</v>
+        <v>0.3468876470949054</v>
       </c>
       <c r="P5">
-        <v>0.615316707981875</v>
+        <v>0.3468876470949054</v>
       </c>
       <c r="Q5">
-        <v>179.2072291014377</v>
+        <v>73.70536898220334</v>
       </c>
       <c r="R5">
-        <v>1612.865061912939</v>
+        <v>663.3483208398301</v>
       </c>
       <c r="S5">
-        <v>0.189316715255246</v>
+        <v>0.08639570317858505</v>
       </c>
       <c r="T5">
-        <v>0.189316715255246</v>
+        <v>0.08639570317858507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>49.43030900000001</v>
       </c>
       <c r="I6">
-        <v>0.3076736139282969</v>
+        <v>0.2490596131114117</v>
       </c>
       <c r="J6">
-        <v>0.3076736139282968</v>
+        <v>0.2490596131114118</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>13.048361</v>
       </c>
       <c r="O6">
-        <v>0.246065066795162</v>
+        <v>0.3372845821706862</v>
       </c>
       <c r="P6">
-        <v>0.2460650667951621</v>
+        <v>0.3372845821706862</v>
       </c>
       <c r="Q6">
         <v>71.66494624150545</v>
@@ -818,10 +818,10 @@
         <v>644.9845161735491</v>
       </c>
       <c r="S6">
-        <v>0.07570772836237527</v>
+        <v>0.08400396754387528</v>
       </c>
       <c r="T6">
-        <v>0.07570772836237527</v>
+        <v>0.08400396754387528</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>49.43030900000001</v>
       </c>
       <c r="I7">
-        <v>0.3076736139282969</v>
+        <v>0.2490596131114117</v>
       </c>
       <c r="J7">
-        <v>0.3076736139282968</v>
+        <v>0.2490596131114118</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.45022</v>
+        <v>4.072757333333333</v>
       </c>
       <c r="N7">
-        <v>7.35066</v>
+        <v>12.218272</v>
       </c>
       <c r="O7">
-        <v>0.1386182252229629</v>
+        <v>0.3158277707344083</v>
       </c>
       <c r="P7">
-        <v>0.1386182252229629</v>
+        <v>0.3158277707344083</v>
       </c>
       <c r="Q7">
-        <v>40.37171057266001</v>
+        <v>67.10588448956089</v>
       </c>
       <c r="R7">
-        <v>363.34539515394</v>
+        <v>603.9529604060481</v>
       </c>
       <c r="S7">
-        <v>0.0426491703106756</v>
+        <v>0.07865994238895137</v>
       </c>
       <c r="T7">
-        <v>0.0426491703106756</v>
+        <v>0.07865994238895137</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.406785</v>
+        <v>42.546687</v>
       </c>
       <c r="H8">
-        <v>64.220355</v>
+        <v>127.640061</v>
       </c>
       <c r="I8">
-        <v>0.3997326561443945</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="J8">
-        <v>0.3997326561443944</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.876357</v>
+        <v>4.47329</v>
       </c>
       <c r="N8">
-        <v>32.629071</v>
+        <v>13.41987</v>
       </c>
       <c r="O8">
-        <v>0.6153167079818749</v>
+        <v>0.3468876470949054</v>
       </c>
       <c r="P8">
-        <v>0.615316707981875</v>
+        <v>0.3468876470949054</v>
       </c>
       <c r="Q8">
-        <v>232.827835882245</v>
+        <v>190.32366949023</v>
       </c>
       <c r="R8">
-        <v>2095.450522940205</v>
+        <v>1712.91302541207</v>
       </c>
       <c r="S8">
-        <v>0.2459621820516196</v>
+        <v>0.223092937247317</v>
       </c>
       <c r="T8">
-        <v>0.2459621820516196</v>
+        <v>0.223092937247317</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.406785</v>
+        <v>42.546687</v>
       </c>
       <c r="H9">
-        <v>64.220355</v>
+        <v>127.640061</v>
       </c>
       <c r="I9">
-        <v>0.3997326561443945</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="J9">
-        <v>0.3997326561443944</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>13.048361</v>
       </c>
       <c r="O9">
-        <v>0.246065066795162</v>
+        <v>0.3372845821706862</v>
       </c>
       <c r="P9">
-        <v>0.2460650667951621</v>
+        <v>0.3372845821706862</v>
       </c>
       <c r="Q9">
-        <v>93.10781950979499</v>
+        <v>185.054843776669</v>
       </c>
       <c r="R9">
-        <v>837.970375588155</v>
+        <v>1665.493593990021</v>
       </c>
       <c r="S9">
-        <v>0.09836024273437795</v>
+        <v>0.2169169434393432</v>
       </c>
       <c r="T9">
-        <v>0.09836024273437796</v>
+        <v>0.2169169434393432</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.406785</v>
+        <v>42.546687</v>
       </c>
       <c r="H10">
-        <v>64.220355</v>
+        <v>127.640061</v>
       </c>
       <c r="I10">
-        <v>0.3997326561443945</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="J10">
-        <v>0.3997326561443944</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.45022</v>
+        <v>4.072757333333333</v>
       </c>
       <c r="N10">
-        <v>7.35066</v>
+        <v>12.218272</v>
       </c>
       <c r="O10">
-        <v>0.1386182252229629</v>
+        <v>0.3158277707344083</v>
       </c>
       <c r="P10">
-        <v>0.1386182252229629</v>
+        <v>0.3158277707344083</v>
       </c>
       <c r="Q10">
-        <v>52.4513327427</v>
+        <v>173.282331488288</v>
       </c>
       <c r="R10">
-        <v>472.0619946843</v>
+        <v>1559.540983394592</v>
       </c>
       <c r="S10">
-        <v>0.05541023135839686</v>
+        <v>0.2031174809120096</v>
       </c>
       <c r="T10">
-        <v>0.05541023135839687</v>
+        <v>0.2031174809120096</v>
       </c>
     </row>
   </sheetData>
